--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="11880"/>
   </bookViews>
   <sheets>
-    <sheet name="QSQT" sheetId="1" r:id="rId1"/>
+    <sheet name="PSQT" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>PAWN</t>
     <phoneticPr fontId="1"/>
@@ -50,13 +50,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>psqttab.h</t>
+    <t>KINGなので序盤は自陣に点数が高い</t>
+    <rPh sb="7" eb="9">
+      <t>ジョバン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジジン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>47行から</t>
-    <rPh sb="2" eb="3">
-      <t>ギョウ</t>
+    <t>終盤は中央が点数が高く、周辺は追い詰められ</t>
+    <rPh sb="0" eb="2">
+      <t>シュウバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やすいので低め</t>
+    <rPh sb="5" eb="6">
+      <t>ヒク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -420,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -431,7 +468,7 @@
     <col min="2" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -445,7 +482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:18">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -495,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:18">
       <c r="B3" s="1">
         <v>-20</v>
       </c>
@@ -545,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:18">
       <c r="B4" s="1">
         <v>-20</v>
       </c>
@@ -595,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:18">
       <c r="B5" s="1">
         <v>-20</v>
       </c>
@@ -645,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:18">
       <c r="B6" s="1">
         <v>-20</v>
       </c>
@@ -695,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:18">
       <c r="B7" s="1">
         <v>-20</v>
       </c>
@@ -745,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:18">
       <c r="B8" s="1">
         <v>-20</v>
       </c>
@@ -795,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:18">
       <c r="B9" s="1">
         <v>0</v>
       </c>
@@ -845,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:18">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -853,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:18">
       <c r="B12" s="1">
         <v>-144</v>
       </c>
@@ -878,16 +915,32 @@
       <c r="I12" s="1">
         <v>-144</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="K12" s="1">
+        <v>-98</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-83</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-51</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-16</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-16</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-51</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-83</v>
+      </c>
+      <c r="R12" s="1">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="B13" s="1">
         <v>-88</v>
       </c>
@@ -912,128 +965,330 @@
       <c r="I13" s="1">
         <v>-88</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" t="s">
-        <v>8</v>
-      </c>
-      <c r="T13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="K13" s="1">
+        <v>-68</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-53</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N13" s="1">
+        <v>14</v>
+      </c>
+      <c r="O13" s="1">
+        <v>14</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-21</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-53</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="B14" s="1">
+        <v>-69</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-24</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-24</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-69</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-53</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-38</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-6</v>
+      </c>
+      <c r="N14" s="1">
+        <v>29</v>
+      </c>
+      <c r="O14" s="1">
+        <v>29</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-6</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-38</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15" s="1">
+        <v>-28</v>
+      </c>
+      <c r="C15" s="1">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1">
+        <v>41</v>
+      </c>
+      <c r="H15" s="1">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-28</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-42</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-27</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>40</v>
+      </c>
+      <c r="O15" s="1">
+        <v>40</v>
+      </c>
+      <c r="P15" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-27</v>
+      </c>
+      <c r="R15" s="1">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" s="1">
+        <v>-30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1">
+        <v>51</v>
+      </c>
+      <c r="G16" s="1">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-30</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-42</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-27</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>40</v>
+      </c>
+      <c r="O16" s="1">
+        <v>40</v>
+      </c>
+      <c r="P16" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-27</v>
+      </c>
+      <c r="R16" s="1">
+        <v>-42</v>
+      </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="B17" s="1">
+        <v>-10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1">
+        <v>59</v>
+      </c>
+      <c r="H17" s="1">
+        <v>35</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-10</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-53</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-38</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-6</v>
+      </c>
+      <c r="N17" s="1">
+        <v>29</v>
+      </c>
+      <c r="O17" s="1">
+        <v>29</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-6</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>-38</v>
+      </c>
+      <c r="R17" s="1">
+        <v>-53</v>
+      </c>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="B18" s="1">
+        <v>-64</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-19</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-64</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-68</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-53</v>
+      </c>
+      <c r="M18" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N18" s="1">
+        <v>14</v>
+      </c>
+      <c r="O18" s="1">
+        <v>14</v>
+      </c>
+      <c r="P18" s="1">
+        <v>-21</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>-53</v>
+      </c>
+      <c r="R18" s="1">
+        <v>-68</v>
+      </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="B19" s="1">
+        <v>-200</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-65</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-41</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-29</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-29</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-41</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-65</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-200</v>
+      </c>
+      <c r="K19" s="1">
+        <v>-98</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-83</v>
+      </c>
+      <c r="M19" s="1">
+        <v>-51</v>
+      </c>
+      <c r="N19" s="1">
+        <v>-16</v>
+      </c>
+      <c r="O19" s="1">
+        <v>-16</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-51</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>-83</v>
+      </c>
+      <c r="R19" s="1">
+        <v>-98</v>
+      </c>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" t="s">
@@ -1044,148 +1299,404 @@
       </c>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="B22" s="1">
+        <v>-54</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-27</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-34</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-43</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-43</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-34</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-27</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-54</v>
+      </c>
+      <c r="K22" s="1">
+        <v>-65</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-42</v>
+      </c>
+      <c r="M22" s="1">
+        <v>-44</v>
+      </c>
+      <c r="N22" s="1">
+        <v>-26</v>
+      </c>
+      <c r="O22" s="1">
+        <v>-26</v>
+      </c>
+      <c r="P22" s="1">
+        <v>-44</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>-42</v>
+      </c>
+      <c r="R22" s="1">
+        <v>-65</v>
+      </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="B23" s="1">
+        <v>-29</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-8</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>8</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-29</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-43</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-20</v>
+      </c>
+      <c r="M23" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N23" s="1">
+        <v>-4</v>
+      </c>
+      <c r="O23" s="1">
+        <v>-4</v>
+      </c>
+      <c r="P23" s="1">
+        <v>-22</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>-20</v>
+      </c>
+      <c r="R23" s="1">
+        <v>-43</v>
+      </c>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="B24" s="1">
+        <v>-20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
+        <v>17</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-20</v>
+      </c>
+      <c r="K24" s="1">
+        <v>-33</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-10</v>
+      </c>
+      <c r="M24" s="1">
+        <v>-12</v>
+      </c>
+      <c r="N24" s="1">
+        <v>6</v>
+      </c>
+      <c r="O24" s="1">
+        <v>6</v>
+      </c>
+      <c r="P24" s="1">
+        <v>-12</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>-10</v>
+      </c>
+      <c r="R24" s="1">
+        <v>-33</v>
+      </c>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="B25" s="1">
+        <v>-19</v>
+      </c>
+      <c r="C25" s="1">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>11</v>
+      </c>
+      <c r="H25" s="1">
+        <v>18</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-19</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-35</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-12</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N25" s="1">
+        <v>4</v>
+      </c>
+      <c r="O25" s="1">
+        <v>4</v>
+      </c>
+      <c r="P25" s="1">
+        <v>-14</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-12</v>
+      </c>
+      <c r="R25" s="1">
+        <v>-35</v>
+      </c>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="B26" s="1">
+        <v>-22</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-22</v>
+      </c>
+      <c r="K26" s="1">
+        <v>-35</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-12</v>
+      </c>
+      <c r="M26" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N26" s="1">
+        <v>4</v>
+      </c>
+      <c r="O26" s="1">
+        <v>4</v>
+      </c>
+      <c r="P26" s="1">
+        <v>-14</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>-12</v>
+      </c>
+      <c r="R26" s="1">
+        <v>-35</v>
+      </c>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="B27" s="1">
+        <v>-28</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-7</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-7</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>9</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-28</v>
+      </c>
+      <c r="K27" s="1">
+        <v>-33</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-10</v>
+      </c>
+      <c r="M27" s="1">
+        <v>-12</v>
+      </c>
+      <c r="N27" s="1">
+        <v>6</v>
+      </c>
+      <c r="O27" s="1">
+        <v>6</v>
+      </c>
+      <c r="P27" s="1">
+        <v>-12</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>-10</v>
+      </c>
+      <c r="R27" s="1">
+        <v>-33</v>
+      </c>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="B28" s="1">
+        <v>-32</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-11</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-11</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-32</v>
+      </c>
+      <c r="K28" s="1">
+        <v>-43</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-20</v>
+      </c>
+      <c r="M28" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N28" s="1">
+        <v>-4</v>
+      </c>
+      <c r="O28" s="1">
+        <v>-4</v>
+      </c>
+      <c r="P28" s="1">
+        <v>-22</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>-20</v>
+      </c>
+      <c r="R28" s="1">
+        <v>-43</v>
+      </c>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="B29" s="1">
+        <v>-49</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-22</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-29</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-38</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-38</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-29</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-22</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-49</v>
+      </c>
+      <c r="K29" s="1">
+        <v>-65</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-42</v>
+      </c>
+      <c r="M29" s="1">
+        <v>-44</v>
+      </c>
+      <c r="N29" s="1">
+        <v>-26</v>
+      </c>
+      <c r="O29" s="1">
+        <v>-26</v>
+      </c>
+      <c r="P29" s="1">
+        <v>-44</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>-42</v>
+      </c>
+      <c r="R29" s="1">
+        <v>-65</v>
+      </c>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" t="s">
@@ -1196,148 +1707,404 @@
       </c>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+      <c r="B32" s="1">
+        <v>-22</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-17</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-12</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-8</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-8</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-12</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-17</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-22</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1">
+        <v>3</v>
+      </c>
+      <c r="N32" s="1">
+        <v>3</v>
+      </c>
+      <c r="O32" s="1">
+        <v>3</v>
+      </c>
+      <c r="P32" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>3</v>
+      </c>
+      <c r="R32" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
+      <c r="B33" s="1">
+        <v>-22</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-7</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-7</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-22</v>
+      </c>
+      <c r="K33" s="1">
+        <v>3</v>
+      </c>
+      <c r="L33" s="1">
+        <v>3</v>
+      </c>
+      <c r="M33" s="1">
+        <v>3</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3</v>
+      </c>
+      <c r="O33" s="1">
+        <v>3</v>
+      </c>
+      <c r="P33" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>3</v>
+      </c>
+      <c r="R33" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
+      <c r="B34" s="1">
+        <v>-22</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>-7</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-22</v>
+      </c>
+      <c r="K34" s="1">
+        <v>3</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3</v>
+      </c>
+      <c r="M34" s="1">
+        <v>3</v>
+      </c>
+      <c r="N34" s="1">
+        <v>3</v>
+      </c>
+      <c r="O34" s="1">
+        <v>3</v>
+      </c>
+      <c r="P34" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>3</v>
+      </c>
+      <c r="R34" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
+      <c r="B35" s="1">
+        <v>-22</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-7</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-7</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-22</v>
+      </c>
+      <c r="K35" s="1">
+        <v>3</v>
+      </c>
+      <c r="L35" s="1">
+        <v>3</v>
+      </c>
+      <c r="M35" s="1">
+        <v>3</v>
+      </c>
+      <c r="N35" s="1">
+        <v>3</v>
+      </c>
+      <c r="O35" s="1">
+        <v>3</v>
+      </c>
+      <c r="P35" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>3</v>
+      </c>
+      <c r="R35" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
+      <c r="B36" s="1">
+        <v>-22</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>-7</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-22</v>
+      </c>
+      <c r="K36" s="1">
+        <v>3</v>
+      </c>
+      <c r="L36" s="1">
+        <v>3</v>
+      </c>
+      <c r="M36" s="1">
+        <v>3</v>
+      </c>
+      <c r="N36" s="1">
+        <v>3</v>
+      </c>
+      <c r="O36" s="1">
+        <v>3</v>
+      </c>
+      <c r="P36" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>3</v>
+      </c>
+      <c r="R36" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="B37" s="1">
+        <v>-22</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>-7</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-22</v>
+      </c>
+      <c r="K37" s="1">
+        <v>3</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3</v>
+      </c>
+      <c r="M37" s="1">
+        <v>3</v>
+      </c>
+      <c r="N37" s="1">
+        <v>3</v>
+      </c>
+      <c r="O37" s="1">
+        <v>3</v>
+      </c>
+      <c r="P37" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>3</v>
+      </c>
+      <c r="R37" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+      <c r="B38" s="1">
+        <v>-11</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1">
+        <v>9</v>
+      </c>
+      <c r="H38" s="1">
+        <v>4</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-11</v>
+      </c>
+      <c r="K38" s="1">
+        <v>3</v>
+      </c>
+      <c r="L38" s="1">
+        <v>3</v>
+      </c>
+      <c r="M38" s="1">
+        <v>3</v>
+      </c>
+      <c r="N38" s="1">
+        <v>3</v>
+      </c>
+      <c r="O38" s="1">
+        <v>3</v>
+      </c>
+      <c r="P38" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>3</v>
+      </c>
+      <c r="R38" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="2:18">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
+      <c r="B39" s="1">
+        <v>-22</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-17</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-12</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-8</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-12</v>
+      </c>
+      <c r="H39" s="1">
+        <v>-17</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-22</v>
+      </c>
+      <c r="K39" s="1">
+        <v>3</v>
+      </c>
+      <c r="L39" s="1">
+        <v>3</v>
+      </c>
+      <c r="M39" s="1">
+        <v>3</v>
+      </c>
+      <c r="N39" s="1">
+        <v>3</v>
+      </c>
+      <c r="O39" s="1">
+        <v>3</v>
+      </c>
+      <c r="P39" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>3</v>
+      </c>
+      <c r="R39" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="2:18">
       <c r="B41" t="s">
@@ -1348,150 +2115,446 @@
       </c>
     </row>
     <row r="42" spans="2:18">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
+      <c r="B42" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K42" s="1">
+        <v>-80</v>
+      </c>
+      <c r="L42" s="1">
+        <v>-54</v>
+      </c>
+      <c r="M42" s="1">
+        <v>-42</v>
+      </c>
+      <c r="N42" s="1">
+        <v>-30</v>
+      </c>
+      <c r="O42" s="1">
+        <v>-30</v>
+      </c>
+      <c r="P42" s="1">
+        <v>-42</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>-54</v>
+      </c>
+      <c r="R42" s="1">
+        <v>-80</v>
+      </c>
     </row>
     <row r="43" spans="2:18">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
+      <c r="B43" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1">
+        <v>8</v>
+      </c>
+      <c r="H43" s="1">
+        <v>8</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>-54</v>
+      </c>
+      <c r="L43" s="1">
+        <v>-30</v>
+      </c>
+      <c r="M43" s="1">
+        <v>-18</v>
+      </c>
+      <c r="N43" s="1">
+        <v>-6</v>
+      </c>
+      <c r="O43" s="1">
+        <v>-6</v>
+      </c>
+      <c r="P43" s="1">
+        <v>-18</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>-30</v>
+      </c>
+      <c r="R43" s="1">
+        <v>-54</v>
+      </c>
     </row>
     <row r="44" spans="2:18">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
+      <c r="B44" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1">
+        <v>8</v>
+      </c>
+      <c r="G44" s="1">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1">
+        <v>8</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>-42</v>
+      </c>
+      <c r="L44" s="1">
+        <v>-18</v>
+      </c>
+      <c r="M44" s="1">
+        <v>-6</v>
+      </c>
+      <c r="N44" s="1">
+        <v>6</v>
+      </c>
+      <c r="O44" s="1">
+        <v>6</v>
+      </c>
+      <c r="P44" s="1">
+        <v>-6</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>-18</v>
+      </c>
+      <c r="R44" s="1">
+        <v>-42</v>
+      </c>
     </row>
     <row r="45" spans="2:18">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
+      <c r="B45" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1">
+        <f>E45</f>
+        <v>8</v>
+      </c>
+      <c r="G45" s="1">
+        <f>D45</f>
+        <v>8</v>
+      </c>
+      <c r="H45" s="1">
+        <f>C45</f>
+        <v>8</v>
+      </c>
+      <c r="I45" s="1">
+        <f>B45</f>
+        <v>-2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>-30</v>
+      </c>
+      <c r="L45" s="1">
+        <v>-6</v>
+      </c>
+      <c r="M45" s="1">
+        <v>6</v>
+      </c>
+      <c r="N45" s="1">
+        <v>18</v>
+      </c>
+      <c r="O45" s="1">
+        <f>N45</f>
+        <v>18</v>
+      </c>
+      <c r="P45" s="1">
+        <f>M45</f>
+        <v>6</v>
+      </c>
+      <c r="Q45" s="1">
+        <f>L45</f>
+        <v>-6</v>
+      </c>
+      <c r="R45" s="1">
+        <f>K45</f>
+        <v>-30</v>
+      </c>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
+      <c r="B46" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1">
+        <f>E46</f>
+        <v>8</v>
+      </c>
+      <c r="G46" s="1">
+        <f>D46</f>
+        <v>8</v>
+      </c>
+      <c r="H46" s="1">
+        <f>C46</f>
+        <v>8</v>
+      </c>
+      <c r="I46" s="1">
+        <f>B46</f>
+        <v>-2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>-30</v>
+      </c>
+      <c r="L46" s="1">
+        <v>-6</v>
+      </c>
+      <c r="M46" s="1">
+        <v>6</v>
+      </c>
+      <c r="N46" s="1">
+        <v>18</v>
+      </c>
+      <c r="O46" s="1">
+        <f>N46</f>
+        <v>18</v>
+      </c>
+      <c r="P46" s="1">
+        <f>M46</f>
+        <v>6</v>
+      </c>
+      <c r="Q46" s="1">
+        <f>L46</f>
+        <v>-6</v>
+      </c>
+      <c r="R46" s="1">
+        <f>K46</f>
+        <v>-30</v>
+      </c>
     </row>
     <row r="47" spans="2:18">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
+      <c r="B47" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1">
+        <v>8</v>
+      </c>
+      <c r="F47" s="1">
+        <f>E47</f>
+        <v>8</v>
+      </c>
+      <c r="G47" s="1">
+        <f>D47</f>
+        <v>8</v>
+      </c>
+      <c r="H47" s="1">
+        <f>C47</f>
+        <v>8</v>
+      </c>
+      <c r="I47" s="1">
+        <f>B47</f>
+        <v>-2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>-42</v>
+      </c>
+      <c r="L47" s="1">
+        <v>-18</v>
+      </c>
+      <c r="M47" s="1">
+        <v>-6</v>
+      </c>
+      <c r="N47" s="1">
+        <v>6</v>
+      </c>
+      <c r="O47" s="1">
+        <f>N47</f>
+        <v>6</v>
+      </c>
+      <c r="P47" s="1">
+        <f>M47</f>
+        <v>-6</v>
+      </c>
+      <c r="Q47" s="1">
+        <f>L47</f>
+        <v>-18</v>
+      </c>
+      <c r="R47" s="1">
+        <f>K47</f>
+        <v>-42</v>
+      </c>
     </row>
     <row r="48" spans="2:18">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-    </row>
-    <row r="49" spans="2:18">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-    </row>
-    <row r="51" spans="2:18">
+      <c r="B48" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1">
+        <v>8</v>
+      </c>
+      <c r="F48" s="1">
+        <f>E48</f>
+        <v>8</v>
+      </c>
+      <c r="G48" s="1">
+        <f>D48</f>
+        <v>8</v>
+      </c>
+      <c r="H48" s="1">
+        <f>C48</f>
+        <v>8</v>
+      </c>
+      <c r="I48" s="1">
+        <f>B48</f>
+        <v>-2</v>
+      </c>
+      <c r="K48" s="1">
+        <v>-54</v>
+      </c>
+      <c r="L48" s="1">
+        <v>-30</v>
+      </c>
+      <c r="M48" s="1">
+        <v>-18</v>
+      </c>
+      <c r="N48" s="1">
+        <v>-6</v>
+      </c>
+      <c r="O48" s="1">
+        <f>N48</f>
+        <v>-6</v>
+      </c>
+      <c r="P48" s="1">
+        <f>M48</f>
+        <v>-18</v>
+      </c>
+      <c r="Q48" s="1">
+        <f>L48</f>
+        <v>-30</v>
+      </c>
+      <c r="R48" s="1">
+        <f>K48</f>
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19">
+      <c r="B49" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F49" s="1">
+        <f>E49</f>
+        <v>-2</v>
+      </c>
+      <c r="G49" s="1">
+        <f>D49</f>
+        <v>-2</v>
+      </c>
+      <c r="H49" s="1">
+        <f>C49</f>
+        <v>-2</v>
+      </c>
+      <c r="I49" s="1">
+        <f>B49</f>
+        <v>-2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>-80</v>
+      </c>
+      <c r="L49" s="1">
+        <v>-54</v>
+      </c>
+      <c r="M49" s="1">
+        <v>-42</v>
+      </c>
+      <c r="N49" s="1">
+        <v>-30</v>
+      </c>
+      <c r="O49" s="1">
+        <f>N49</f>
+        <v>-30</v>
+      </c>
+      <c r="P49" s="1">
+        <f>M49</f>
+        <v>-42</v>
+      </c>
+      <c r="Q49" s="1">
+        <f>L49</f>
+        <v>-54</v>
+      </c>
+      <c r="R49" s="1">
+        <f>K49</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19">
       <c r="B51" t="s">
         <v>5</v>
       </c>
@@ -1499,152 +2562,553 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-    </row>
-    <row r="53" spans="2:18">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-    </row>
-    <row r="54" spans="2:18">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-    </row>
-    <row r="55" spans="2:18">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-    </row>
-    <row r="56" spans="2:18">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="2:18">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-    </row>
-    <row r="58" spans="2:18">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-    </row>
-    <row r="59" spans="2:18">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
+    <row r="52" spans="2:19">
+      <c r="B52" s="1">
+        <v>298</v>
+      </c>
+      <c r="C52" s="1">
+        <v>332</v>
+      </c>
+      <c r="D52" s="1">
+        <v>273</v>
+      </c>
+      <c r="E52" s="1">
+        <v>225</v>
+      </c>
+      <c r="F52" s="1">
+        <f>E52</f>
+        <v>225</v>
+      </c>
+      <c r="G52" s="1">
+        <f>D52</f>
+        <v>273</v>
+      </c>
+      <c r="H52" s="1">
+        <f>C52</f>
+        <v>332</v>
+      </c>
+      <c r="I52" s="1">
+        <f>B52</f>
+        <v>298</v>
+      </c>
+      <c r="K52" s="1">
+        <v>27</v>
+      </c>
+      <c r="L52" s="1">
+        <v>81</v>
+      </c>
+      <c r="M52" s="1">
+        <v>108</v>
+      </c>
+      <c r="N52" s="1">
+        <v>116</v>
+      </c>
+      <c r="O52" s="1">
+        <f>N52</f>
+        <v>116</v>
+      </c>
+      <c r="P52" s="1">
+        <f>M52</f>
+        <v>108</v>
+      </c>
+      <c r="Q52" s="1">
+        <f>L52</f>
+        <v>81</v>
+      </c>
+      <c r="R52" s="1">
+        <f>K52</f>
+        <v>27</v>
+      </c>
+      <c r="S52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19">
+      <c r="B53" s="1">
+        <v>287</v>
+      </c>
+      <c r="C53" s="1">
+        <v>321</v>
+      </c>
+      <c r="D53" s="1">
+        <v>262</v>
+      </c>
+      <c r="E53" s="1">
+        <v>214</v>
+      </c>
+      <c r="F53" s="1">
+        <f>E53</f>
+        <v>214</v>
+      </c>
+      <c r="G53" s="1">
+        <f>D53</f>
+        <v>262</v>
+      </c>
+      <c r="H53" s="1">
+        <f>C53</f>
+        <v>321</v>
+      </c>
+      <c r="I53" s="1">
+        <f>B53</f>
+        <v>287</v>
+      </c>
+      <c r="K53" s="1">
+        <v>74</v>
+      </c>
+      <c r="L53" s="1">
+        <v>128</v>
+      </c>
+      <c r="M53" s="1">
+        <v>155</v>
+      </c>
+      <c r="N53" s="1">
+        <v>163</v>
+      </c>
+      <c r="O53" s="1">
+        <f>N53</f>
+        <v>163</v>
+      </c>
+      <c r="P53" s="1">
+        <f>M53</f>
+        <v>155</v>
+      </c>
+      <c r="Q53" s="1">
+        <f>L53</f>
+        <v>128</v>
+      </c>
+      <c r="R53" s="1">
+        <f>K53</f>
+        <v>74</v>
+      </c>
+      <c r="S53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19">
+      <c r="B54" s="1">
+        <v>224</v>
+      </c>
+      <c r="C54" s="1">
+        <v>258</v>
+      </c>
+      <c r="D54" s="1">
+        <v>199</v>
+      </c>
+      <c r="E54" s="1">
+        <v>151</v>
+      </c>
+      <c r="F54" s="1">
+        <f>E54</f>
+        <v>151</v>
+      </c>
+      <c r="G54" s="1">
+        <f>D54</f>
+        <v>199</v>
+      </c>
+      <c r="H54" s="1">
+        <f>C54</f>
+        <v>258</v>
+      </c>
+      <c r="I54" s="1">
+        <f>B54</f>
+        <v>224</v>
+      </c>
+      <c r="K54" s="1">
+        <v>111</v>
+      </c>
+      <c r="L54" s="1">
+        <v>165</v>
+      </c>
+      <c r="M54" s="1">
+        <v>192</v>
+      </c>
+      <c r="N54" s="1">
+        <v>200</v>
+      </c>
+      <c r="O54" s="1">
+        <f>N54</f>
+        <v>200</v>
+      </c>
+      <c r="P54" s="1">
+        <f>M54</f>
+        <v>192</v>
+      </c>
+      <c r="Q54" s="1">
+        <f>L54</f>
+        <v>165</v>
+      </c>
+      <c r="R54" s="1">
+        <f>K54</f>
+        <v>111</v>
+      </c>
+      <c r="S54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19">
+      <c r="B55" s="1">
+        <v>196</v>
+      </c>
+      <c r="C55" s="1">
+        <v>230</v>
+      </c>
+      <c r="D55" s="1">
+        <v>171</v>
+      </c>
+      <c r="E55" s="1">
+        <v>123</v>
+      </c>
+      <c r="F55" s="1">
+        <f>E55</f>
+        <v>123</v>
+      </c>
+      <c r="G55" s="1">
+        <f>D55</f>
+        <v>171</v>
+      </c>
+      <c r="H55" s="1">
+        <f>C55</f>
+        <v>230</v>
+      </c>
+      <c r="I55" s="1">
+        <f>B55</f>
+        <v>196</v>
+      </c>
+      <c r="K55" s="1">
+        <v>135</v>
+      </c>
+      <c r="L55" s="1">
+        <v>189</v>
+      </c>
+      <c r="M55" s="1">
+        <v>216</v>
+      </c>
+      <c r="N55" s="1">
+        <v>224</v>
+      </c>
+      <c r="O55" s="1">
+        <f>N55</f>
+        <v>224</v>
+      </c>
+      <c r="P55" s="1">
+        <f>M55</f>
+        <v>216</v>
+      </c>
+      <c r="Q55" s="1">
+        <f>L55</f>
+        <v>189</v>
+      </c>
+      <c r="R55" s="1">
+        <f>K55</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19">
+      <c r="B56" s="1">
+        <v>173</v>
+      </c>
+      <c r="C56" s="1">
+        <v>207</v>
+      </c>
+      <c r="D56" s="1">
+        <v>148</v>
+      </c>
+      <c r="E56" s="1">
+        <v>100</v>
+      </c>
+      <c r="F56" s="1">
+        <f>E56</f>
+        <v>100</v>
+      </c>
+      <c r="G56" s="1">
+        <f>D56</f>
+        <v>148</v>
+      </c>
+      <c r="H56" s="1">
+        <f>C56</f>
+        <v>207</v>
+      </c>
+      <c r="I56" s="1">
+        <f>B56</f>
+        <v>173</v>
+      </c>
+      <c r="K56" s="1">
+        <v>135</v>
+      </c>
+      <c r="L56" s="1">
+        <v>189</v>
+      </c>
+      <c r="M56" s="1">
+        <v>216</v>
+      </c>
+      <c r="N56" s="1">
+        <v>224</v>
+      </c>
+      <c r="O56" s="1">
+        <f>N56</f>
+        <v>224</v>
+      </c>
+      <c r="P56" s="1">
+        <f>M56</f>
+        <v>216</v>
+      </c>
+      <c r="Q56" s="1">
+        <f>L56</f>
+        <v>189</v>
+      </c>
+      <c r="R56" s="1">
+        <f>K56</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19">
+      <c r="B57" s="1">
+        <v>146</v>
+      </c>
+      <c r="C57" s="1">
+        <v>180</v>
+      </c>
+      <c r="D57" s="1">
+        <v>121</v>
+      </c>
+      <c r="E57" s="1">
+        <v>73</v>
+      </c>
+      <c r="F57" s="1">
+        <f>E57</f>
+        <v>73</v>
+      </c>
+      <c r="G57" s="1">
+        <f>D57</f>
+        <v>121</v>
+      </c>
+      <c r="H57" s="1">
+        <f>C57</f>
+        <v>180</v>
+      </c>
+      <c r="I57" s="1">
+        <f>B57</f>
+        <v>146</v>
+      </c>
+      <c r="K57" s="1">
+        <v>111</v>
+      </c>
+      <c r="L57" s="1">
+        <v>165</v>
+      </c>
+      <c r="M57" s="1">
+        <v>192</v>
+      </c>
+      <c r="N57" s="1">
+        <v>200</v>
+      </c>
+      <c r="O57" s="1">
+        <f>N57</f>
+        <v>200</v>
+      </c>
+      <c r="P57" s="1">
+        <f>M57</f>
+        <v>192</v>
+      </c>
+      <c r="Q57" s="1">
+        <f>L57</f>
+        <v>165</v>
+      </c>
+      <c r="R57" s="1">
+        <f>K57</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19">
+      <c r="B58" s="1">
+        <v>119</v>
+      </c>
+      <c r="C58" s="1">
+        <v>153</v>
+      </c>
+      <c r="D58" s="1">
+        <v>94</v>
+      </c>
+      <c r="E58" s="1">
+        <v>46</v>
+      </c>
+      <c r="F58" s="1">
+        <f>E58</f>
+        <v>46</v>
+      </c>
+      <c r="G58" s="1">
+        <f>D58</f>
+        <v>94</v>
+      </c>
+      <c r="H58" s="1">
+        <f>C58</f>
+        <v>153</v>
+      </c>
+      <c r="I58" s="1">
+        <f>B58</f>
+        <v>119</v>
+      </c>
+      <c r="K58" s="1">
+        <v>74</v>
+      </c>
+      <c r="L58" s="1">
+        <v>128</v>
+      </c>
+      <c r="M58" s="1">
+        <v>155</v>
+      </c>
+      <c r="N58" s="1">
+        <v>163</v>
+      </c>
+      <c r="O58" s="1">
+        <f>N58</f>
+        <v>163</v>
+      </c>
+      <c r="P58" s="1">
+        <f>M58</f>
+        <v>155</v>
+      </c>
+      <c r="Q58" s="1">
+        <f>L58</f>
+        <v>128</v>
+      </c>
+      <c r="R58" s="1">
+        <f>K58</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19">
+      <c r="B59" s="1">
+        <v>98</v>
+      </c>
+      <c r="C59" s="1">
+        <v>132</v>
+      </c>
+      <c r="D59" s="1">
+        <v>73</v>
+      </c>
+      <c r="E59" s="1">
+        <v>25</v>
+      </c>
+      <c r="F59" s="1">
+        <f>E59</f>
+        <v>25</v>
+      </c>
+      <c r="G59" s="1">
+        <f>D59</f>
+        <v>73</v>
+      </c>
+      <c r="H59" s="1">
+        <f>C59</f>
+        <v>132</v>
+      </c>
+      <c r="I59" s="1">
+        <f>B59</f>
+        <v>98</v>
+      </c>
+      <c r="K59" s="1">
+        <v>27</v>
+      </c>
+      <c r="L59" s="1">
+        <v>81</v>
+      </c>
+      <c r="M59" s="1">
+        <v>108</v>
+      </c>
+      <c r="N59" s="1">
+        <v>116</v>
+      </c>
+      <c r="O59" s="1">
+        <f>N59</f>
+        <v>116</v>
+      </c>
+      <c r="P59" s="1">
+        <f>M59</f>
+        <v>108</v>
+      </c>
+      <c r="Q59" s="1">
+        <f>L59</f>
+        <v>81</v>
+      </c>
+      <c r="R59" s="1">
+        <f>K59</f>
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B2:R9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:R19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:R29">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:R39">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:R49">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:R59">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
